--- a/stats/co_references.xlsx
+++ b/stats/co_references.xlsx
@@ -404,14 +404,14 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.26953125" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" customWidth="1"/>
     <col min="4" max="4" width="18.453125" customWidth="1"/>
     <col min="5" max="5" width="19.81640625" customWidth="1"/>
     <col min="6" max="6" width="28.26953125" customWidth="1"/>
@@ -569,18 +569,18 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
         <f>C8+D8+E8</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" ref="G8:G11" si="2">F8/B8</f>
-        <v>0.52941176470588236</v>
+        <v>0.58823529411764708</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F9:F11" si="3">C10+D10+E10</f>
+        <f t="shared" ref="F10:F11" si="3">C10+D10+E10</f>
         <v>9</v>
       </c>
       <c r="G10" s="1">
